--- a/results/eval.xlsx
+++ b/results/eval.xlsx
@@ -11,9 +11,10 @@
     <sheet name="orb" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="AKAZE" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="agast_sift" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="superpoint" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="kp2d" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="kp2d" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="superpoint" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="sp2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="superpoint1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1241,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,351 +1251,324 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param1</t>
+          <t>param2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param2</t>
+          <t>top_k</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>top_k</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>repeat</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>repeat</t>
+          <t>loc_error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>loc_error</t>
+          <t>fail_cnt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>fail_cnt</t>
+          <t>success_cnt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>success_cnt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>avg_err</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C2" s="0" t="inlineStr"/>
+      <c r="D2" s="0" t="n">
+        <v>46.51515151515152</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>47.57575757575758</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5509469644190693</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.234598268649013</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>22.24242424242424</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1.609933580721716</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr"/>
+      <c r="D3" s="0" t="n">
+        <v>46.36363636363637</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>47.33333333333334</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.5539061358682877</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.224514836301755</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>22.24242424242424</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1.609933580721716</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr"/>
+      <c r="D4" s="0" t="n">
+        <v>45.24242424242424</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>46.51515151515152</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5638996896365625</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1.205054941978043</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>21.96969696969697</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1.641194051171248</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="n">
-        <v>46.51515151515152</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>47.57575757575758</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.5509469644190693</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1.234598268649013</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>22.24242424242424</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1.609933580721716</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="C5" s="0" t="inlineStr"/>
+      <c r="D5" s="0" t="n">
+        <v>97.90909090909091</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5654050709742309</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1.27730677952331</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>41.36363636363637</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1.941344890440952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="n">
-        <v>46.36363636363637</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>47.33333333333334</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.5539061358682877</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1.224514836301755</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>22.24242424242424</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1.609933580721716</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="C6" s="0" t="inlineStr"/>
+      <c r="D6" s="0" t="n">
+        <v>96.93939393939394</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>95.15151515151516</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.575400967837031</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1.274965994742623</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>41.06060606060606</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2.008076347511041</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="n">
-        <v>45.24242424242424</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>46.51515151515152</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.5638996896365625</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1.205054941978043</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>21.96969696969697</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1.641194051171248</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="C7" s="0" t="inlineStr"/>
+      <c r="D7" s="0" t="n">
+        <v>91.27272727272727</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>88.54545454545455</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.5845642337134236</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.251319734414607</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>38.90909090909091</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2.110513720641894</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="n">
-        <v>97.90909090909091</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="C8" s="0" t="inlineStr"/>
+      <c r="D8" s="0" t="n">
+        <v>201.9393939393939</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>195.3636363636364</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.5675995570836395</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1.354700804898012</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0.5654050709742309</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1.27730677952331</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>41.36363636363637</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1.941344890440952</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="I8" s="0" t="n">
+        <v>76.15151515151516</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1.960019382730494</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="n">
-        <v>96.93939393939394</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>95.15151515151516</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.575400967837031</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1.274965994742623</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>41.06060606060606</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>2.008076347511041</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="C9" s="0" t="inlineStr"/>
+      <c r="D9" s="0" t="n">
+        <v>197.7272727272727</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>191.4242424242424</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5846339113176404</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1.343333390360789</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>74.84848484848484</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1.875553402368005</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="n">
-        <v>91.27272727272727</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>88.54545454545455</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.5845642337134236</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1.251319734414607</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>38.90909090909091</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>2.110513720641894</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="n">
-        <v>201.9393939393939</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>195.3636363636364</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.5675995570836395</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1.354700804898012</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>76.15151515151516</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1.960019382730494</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="n">
-        <v>197.7272727272727</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>191.4242424242424</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.5846339113176404</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1.343333390360789</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>74.84848484848484</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1.875553402368005</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr"/>
+      <c r="C10" s="0" t="inlineStr"/>
+      <c r="D10" s="0" t="n">
+        <v>164.2121212121212</v>
+      </c>
       <c r="E10" s="0" t="n">
-        <v>164.2121212121212</v>
+        <v>158.8484848484848</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>158.8484848484848</v>
+        <v>0.5680758665300426</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.5680758665300426</v>
+        <v>1.307024371415655</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.307024371415655</v>
+        <v>63</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>63</v>
+        <v>64.39393939393939</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>64.39393939393939</v>
-      </c>
-      <c r="K10" s="0" t="n">
         <v>1.966459756591057</v>
       </c>
     </row>
@@ -1609,7 +1583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,318 +1592,294 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param1</t>
+          <t>param2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param2</t>
+          <t>top_k</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>top_k</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>repeat</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>repeat</t>
+          <t>loc_error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>loc_error</t>
+          <t>fail_cnt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>fail_cnt</t>
+          <t>success_cnt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>success_cnt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>avg_err</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C2" s="0" t="inlineStr"/>
+      <c r="D2" s="0" t="n">
+        <v>116.8787878787879</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>115.7575757575758</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5759223950384804</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.051623168324271</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1.169993716984992</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr"/>
+      <c r="D3" s="0" t="n">
+        <v>117.7878787878788</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>116.7272727272727</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.5823033253052868</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.055723690757492</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>76.48484848484848</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1.17088295744902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr"/>
+      <c r="D4" s="0" t="n">
+        <v>114.4545454545455</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>112.8787878787879</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5749904908034527</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1.057155998715739</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>73.12121212121212</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1.141752110283033</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr"/>
+      <c r="D5" s="0" t="n">
+        <v>113.4242424242424</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>111.8484848484848</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5778153008215557</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1.047100721185086</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>74.66666666666667</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1.125929058593072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="n">
-        <v>116.8787878787879</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>115.7575757575758</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.5759223950384804</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1.051623168324271</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1.169993716984992</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C6" s="0" t="inlineStr"/>
+      <c r="D6" s="0" t="n">
+        <v>22.87878787878788</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>22.48484848484848</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.5765196654029655</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.8534111107456397</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="I6" s="0" t="n">
+        <v>15.93939393939394</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.4898480151113118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="n">
-        <v>117.7878787878788</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>116.7272727272727</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.5823033253052868</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1.055723690757492</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>76.48484848484848</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1.17088295744902</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C7" s="0" t="inlineStr"/>
+      <c r="D7" s="0" t="n">
+        <v>22.12121212121212</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>21.96969696969697</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.5758514624836117</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.8848235137731315</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>15.60606060606061</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.6411206688427585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="n">
-        <v>114.4545454545455</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>112.8787878787879</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.5749904908034527</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1.057155998715739</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>73.12121212121212</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1.141752110283033</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C8" s="0" t="inlineStr"/>
+      <c r="D8" s="0" t="n">
+        <v>22.24242424242424</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>22.06060606060606</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.5737383597480876</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.8630430179480997</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>15.45454545454546</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.4877533186910964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="n">
-        <v>113.4242424242424</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>111.8484848484848</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.5778153008215557</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1.047100721185086</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>74.66666666666667</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1.125929058593072</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="n">
-        <v>22.87878787878788</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>22.48484848484848</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.5765196654029655</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.8534111107456397</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="C9" s="0" t="inlineStr"/>
+      <c r="D9" s="0" t="n">
+        <v>20.75757575757576</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>20.6969696969697</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5778068362271954</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.8626592437709532</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>15.93939393939394</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0.4898480151113118</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr"/>
-      <c r="E7" s="0" t="n">
-        <v>22.12121212121212</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>21.96969696969697</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.5758514624836117</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0.8848235137731315</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>15.60606060606061</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>0.6411206688427585</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr"/>
-      <c r="E8" s="0" t="n">
-        <v>22.24242424242424</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>22.06060606060606</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.5737383597480876</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.8630430179480997</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>15.45454545454546</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>0.4877533186910964</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr"/>
-      <c r="E9" s="0" t="n">
-        <v>20.75757575757576</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>20.6969696969697</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.5778068362271954</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.8626592437709532</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>14.96969696969697</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>14.96969696969697</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>0.6130877326917576</v>
       </c>
     </row>
@@ -1944,7 +1894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,229 +1903,214 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param1</t>
+          <t>param2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param2</t>
+          <t>top_k</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>top_k</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>repeat</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>repeat</t>
+          <t>loc_error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>loc_error</t>
+          <t>fail_cnt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>fail_cnt</t>
+          <t>success_cnt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>success_cnt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>avg_err</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>5_8</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr"/>
+      <c r="D2" s="0" t="n">
+        <v>145.2424242424242</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>146.7878787878788</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.4478107019310403</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.612992640676715</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>110.1212121212121</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1.960331319945251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>5_8</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr"/>
+      <c r="D3" s="0" t="n">
+        <v>19.78787878787879</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>21.90909090909091</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.4484210034053777</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.524643472312811</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>16.36363636363636</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2.215002230329701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>5_8</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr"/>
+      <c r="D4" s="0" t="n">
+        <v>11.72727272727273</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>13.45454545454546</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5289664840413514</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1.405879622059373</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="I4" s="0" t="n">
+        <v>9.78125</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1.773087861077952</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>5_8</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="inlineStr"/>
-      <c r="E2" s="0" t="n">
-        <v>145.2424242424242</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>146.7878787878788</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.4478107019310403</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1.612992640676715</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>110.1212121212121</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1.960331319945251</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr"/>
+      <c r="D5" s="0" t="n">
+        <v>8.375</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>9.21875</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5408898290575309</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1.285212831183684</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>7.03125</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1.343259111575458</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>5_8</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr"/>
-      <c r="E3" s="0" t="n">
-        <v>19.78787878787879</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>21.90909090909091</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.4484210034053777</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1.524643472312811</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>16.36363636363636</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2.215002230329701</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr"/>
-      <c r="E4" s="0" t="n">
-        <v>11.72727272727273</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>13.45454545454546</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.5289664840413514</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1.405879622059373</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="B6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr"/>
+      <c r="D6" s="0" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>7.535714285714286</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.5367689503211415</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1.363013586341493</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>9.78125</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1.773087861077952</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0" t="inlineStr"/>
-      <c r="E5" s="0" t="n">
-        <v>8.375</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>9.21875</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.5408898290575309</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1.285212831183684</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>7.03125</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1.343259111575458</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>7.535714285714286</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.5367689503211415</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1.363013586341493</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>0</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>5.571428571428571</v>
-      </c>
-      <c r="K6" s="0" t="n">
         <v>1.414889963247186</v>
       </c>
     </row>
@@ -2260,25 +2195,25 @@
         <v>50</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>17.03030303030303</v>
+        <v>30.36363636363636</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>17.03030303030303</v>
+        <v>31.09090909090909</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.3440151515151515</v>
+        <v>0.6145454545454546</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1.540328771618048</v>
+        <v>1.04734498109068</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>18.03030303030303</v>
+        <v>20.93939393939394</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2.46156198870967</v>
+        <v>1.161760330200195</v>
       </c>
     </row>
     <row r="3">
@@ -2291,25 +2226,25 @@
         <v>100</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>33.33333333333334</v>
+        <v>62.18181818181818</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>33.42424242424242</v>
+        <v>64.36363636363636</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.3547564798657531</v>
+        <v>0.6327272727272727</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.604072470291601</v>
+        <v>1.100270429799825</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>33.63636363636363</v>
+        <v>41.36363636363637</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.094625313480175</v>
+        <v>1.490916609764099</v>
       </c>
     </row>
     <row r="4">
@@ -2322,25 +2257,25 @@
         <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>47.87878787878788</v>
+        <v>127.1818181818182</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>47.87878787878788</v>
+        <v>129.3030303030303</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.3608650297436803</v>
+        <v>0.6412121212121211</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.614463523140441</v>
+        <v>1.156578934223389</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>47.63636363636363</v>
+        <v>82.27272727272727</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>2.073651591700253</v>
+        <v>1.400492191314697</v>
       </c>
     </row>
     <row r="5">
@@ -2353,25 +2288,25 @@
         <v>400</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>48.96969696969697</v>
+        <v>254.6060606060606</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>48.96969696969697</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.3603488534896038</v>
+        <v>0.6411742424242425</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1.614633329829526</v>
+        <v>1.248410462312559</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>48.96969696969697</v>
+        <v>157.3333333333333</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>2.073651591700253</v>
+        <v>1.882503509521484</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2455,25 +2390,25 @@
         <v>50</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>30.36363636363636</v>
+        <v>17.03030303030303</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>31.09090909090909</v>
+        <v>17.03030303030303</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.6145454545454546</v>
+        <v>0.3440151515151515</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1.04734498109068</v>
+        <v>1.540328771618048</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>20.93939393939394</v>
+        <v>18.03030303030303</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>1.161760330200195</v>
+        <v>2.46156198870967</v>
       </c>
     </row>
     <row r="3">
@@ -2486,87 +2421,25 @@
         <v>100</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>62.18181818181818</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>64.36363636363636</v>
+        <v>33.42424242424242</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.6327272727272727</v>
+        <v>0.3547564798657531</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.100270429799825</v>
+        <v>1.604072470291601</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>41.36363636363637</v>
+        <v>33.63636363636363</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.490916609764099</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr"/>
-      <c r="C4" s="0" t="inlineStr"/>
-      <c r="D4" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>127.1818181818182</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>129.3030303030303</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.6412121212121211</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1.156578934223389</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>82.27272727272727</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1.400492191314697</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr"/>
-      <c r="C5" s="0" t="inlineStr"/>
-      <c r="D5" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>254.6060606060606</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>258.3333333333333</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.6411742424242425</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1.248410462312559</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>157.3333333333333</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1.882503509521484</v>
+        <v>2.094625313480175</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +2453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,179 +2462,238 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param1</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>param2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>top_k</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>repeat</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>loc_error</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fail_cnt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>success_cnt</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>avg_err</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.48484848484848</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.18181818181818</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.567326758454578</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9710811562086199</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.63636363636364</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9867120981216431</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57.60606060606061</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.96969696969697</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5980629395146014</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9378676513327837</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27.84848484848485</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.351758599281311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>param1</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>param2</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param2</t>
+          <t>top_k</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>top_k</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>repeat</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>repeat</t>
+          <t>loc_error</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>loc_error</t>
+          <t>fail_cnt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>fail_cnt</t>
+          <t>success_cnt</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>success_cnt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>avg_err</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="A2" s="0" t="inlineStr"/>
+      <c r="B2" s="0" t="inlineStr"/>
+      <c r="C2" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E2" t="n">
-        <v>28.6969696969697</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27.33333333333333</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5603030303030303</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9691569544299549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13.6969696969697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9867120981216431</v>
+      <c r="D2" s="0" t="n">
+        <v>17.03030303030303</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>17.03030303030303</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.3440151515151515</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.540328771618048</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>18.03030303030303</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2.46156198870967</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="A3" s="0" t="inlineStr"/>
+      <c r="B3" s="0" t="inlineStr"/>
+      <c r="C3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E3" t="n">
-        <v>59.93939393939394</v>
-      </c>
-      <c r="F3" t="n">
-        <v>59.96969696969697</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5995454545454546</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.948430965292547</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="D3" s="0" t="n">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>33.42424242424242</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.3547564798657531</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.604072470291601</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>28.72727272727273</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.385406374931335</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" t="n">
-        <v>123.2727272727273</v>
-      </c>
-      <c r="F4" t="n">
-        <v>127.5757575757576</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6271212121212121</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8925360188165602</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>61.39393939393939</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.519343256950378</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>262.2121212121212</v>
-      </c>
-      <c r="F5" t="n">
-        <v>269.9393939393939</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.665189393939394</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8874422432572409</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>130</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.68077278137207</v>
+      <c r="I3" s="0" t="n">
+        <v>33.63636363636363</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2.094625313480175</v>
       </c>
     </row>
   </sheetData>

--- a/results/eval.xlsx
+++ b/results/eval.xlsx
@@ -7,14 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="agast_sift1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="orb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="AKAZE" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="agast_sift" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="kp2d" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="superpoint" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="sp2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="superpoint1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="sp2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="kp2d" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="orb" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AKAZE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="agast_sift" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1046,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,40 +1054,50 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>param1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>param2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>top_k</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>repeat</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>loc_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fail_cnt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>success_cnt</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg_err</t>
         </is>
@@ -1101,26 +1108,30 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="inlineStr"/>
-      <c r="C2" s="0" t="n">
-        <v>145.2424242424242</v>
-      </c>
+      <c r="C2" s="0" t="inlineStr"/>
       <c r="D2" s="0" t="n">
-        <v>146.7878787878788</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.4478107019310403</v>
+        <v>28.6969696969697</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1.612992640676715</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>23</v>
+        <v>0.5603030303030303</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>110.1212121212121</v>
+        <v>0.9691569544299549</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.960331319945251</v>
+        <v>5</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>13.6969696969697</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.9867120981216431</v>
       </c>
     </row>
     <row r="3">
@@ -1128,26 +1139,30 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="inlineStr"/>
-      <c r="C3" s="0" t="n">
-        <v>19.78787878787879</v>
-      </c>
+      <c r="C3" s="0" t="inlineStr"/>
       <c r="D3" s="0" t="n">
-        <v>21.90909090909091</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.4484210034053777</v>
+        <v>59.93939393939394</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.524643472312811</v>
+        <v>59.96969696969697</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3</v>
+        <v>0.5995454545454546</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>16.36363636363636</v>
+        <v>0.948430965292547</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.215002230329701</v>
+        <v>7</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>28.72727272727273</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1.385406374931335</v>
       </c>
     </row>
     <row r="4">
@@ -1155,26 +1170,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="inlineStr"/>
-      <c r="C4" s="0" t="n">
-        <v>11.72727272727273</v>
-      </c>
+      <c r="C4" s="0" t="inlineStr"/>
       <c r="D4" s="0" t="n">
-        <v>13.45454545454546</v>
+        <v>500</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.5289664840413514</v>
+        <v>329.8484848484849</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.405879622059373</v>
+        <v>335.2727272727273</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>0.6725701064656354</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>9.78125</v>
+        <v>0.8681711007820828</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1.773087861077952</v>
+        <v>36</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>162.969696969697</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.670551896095276</v>
       </c>
     </row>
     <row r="5">
@@ -1182,53 +1201,30 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="inlineStr"/>
-      <c r="C5" s="0" t="n">
-        <v>8.375</v>
-      </c>
+      <c r="C5" s="0" t="inlineStr"/>
       <c r="D5" s="0" t="n">
-        <v>9.21875</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.5408898290575309</v>
+        <v>678.1212121212121</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.285212831183684</v>
+        <v>693.5757575757576</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>0.7048933193504153</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>7.03125</v>
+        <v>0.8495025074040284</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1.343259111575458</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="inlineStr"/>
-      <c r="C6" s="0" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>7.535714285714286</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.5367689503211415</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1.363013586341493</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>5.571428571428571</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1.414889963247186</v>
+        <v>57</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>338.5757575757576</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1.78496527671814</v>
       </c>
     </row>
   </sheetData>
@@ -1237,889 +1233,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>param1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>param2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>top_k</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>repeat</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>loc_error</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fail_cnt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>success_cnt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>avg_err</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="inlineStr"/>
-      <c r="D2" s="0" t="n">
-        <v>46.51515151515152</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>47.57575757575758</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.5509469644190693</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1.234598268649013</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>22.24242424242424</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1.609933580721716</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="inlineStr"/>
-      <c r="D3" s="0" t="n">
-        <v>46.36363636363637</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>47.33333333333334</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.5539061358682877</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1.224514836301755</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>22.24242424242424</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1.609933580721716</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr"/>
-      <c r="D4" s="0" t="n">
-        <v>45.24242424242424</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>46.51515151515152</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5638996896365625</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1.205054941978043</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>21.96969696969697</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1.641194051171248</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr"/>
-      <c r="D5" s="0" t="n">
-        <v>97.90909090909091</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.5654050709742309</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1.27730677952331</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>41.36363636363637</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1.941344890440952</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="inlineStr"/>
-      <c r="D6" s="0" t="n">
-        <v>96.93939393939394</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>95.15151515151516</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.575400967837031</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1.274965994742623</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>41.06060606060606</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>2.008076347511041</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr"/>
-      <c r="D7" s="0" t="n">
-        <v>91.27272727272727</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>88.54545454545455</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.5845642337134236</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1.251319734414607</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>38.90909090909091</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>2.110513720641894</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr"/>
-      <c r="D8" s="0" t="n">
-        <v>201.9393939393939</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>195.3636363636364</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.5675995570836395</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1.354700804898012</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>76.15151515151516</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1.960019382730494</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr"/>
-      <c r="D9" s="0" t="n">
-        <v>197.7272727272727</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>191.4242424242424</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.5846339113176404</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1.343333390360789</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>74.84848484848484</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1.875553402368005</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr"/>
-      <c r="D10" s="0" t="n">
-        <v>164.2121212121212</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>158.8484848484848</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.5680758665300426</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1.307024371415655</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>64.39393939393939</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1.966459756591057</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>param1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>param2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>top_k</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>repeat</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>loc_error</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fail_cnt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>success_cnt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>avg_err</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="inlineStr"/>
-      <c r="D2" s="0" t="n">
-        <v>116.8787878787879</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>115.7575757575758</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.5759223950384804</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1.051623168324271</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1.169993716984992</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="inlineStr"/>
-      <c r="D3" s="0" t="n">
-        <v>117.7878787878788</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>116.7272727272727</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.5823033253052868</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1.055723690757492</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>76.48484848484848</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1.17088295744902</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr"/>
-      <c r="D4" s="0" t="n">
-        <v>114.4545454545455</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>112.8787878787879</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5749904908034527</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1.057155998715739</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>73.12121212121212</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1.141752110283033</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr"/>
-      <c r="D5" s="0" t="n">
-        <v>113.4242424242424</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>111.8484848484848</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.5778153008215557</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1.047100721185086</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>74.66666666666667</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1.125929058593072</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="inlineStr"/>
-      <c r="D6" s="0" t="n">
-        <v>22.87878787878788</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>22.48484848484848</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.5765196654029655</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.8534111107456397</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>15.93939393939394</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.4898480151113118</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr"/>
-      <c r="D7" s="0" t="n">
-        <v>22.12121212121212</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>21.96969696969697</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0.5758514624836117</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.8848235137731315</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>15.60606060606061</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0.6411206688427585</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr"/>
-      <c r="D8" s="0" t="n">
-        <v>22.24242424242424</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>22.06060606060606</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.5737383597480876</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.8630430179480997</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>15.45454545454546</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0.4877533186910964</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr"/>
-      <c r="D9" s="0" t="n">
-        <v>20.75757575757576</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>20.6969696969697</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.5778068362271954</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.8626592437709532</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>14.96969696969697</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.6130877326917576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>param1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>param2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>top_k</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>repeat</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>loc_error</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fail_cnt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>success_cnt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>avg_err</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="inlineStr"/>
-      <c r="D2" s="0" t="n">
-        <v>145.2424242424242</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>146.7878787878788</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.4478107019310403</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1.612992640676715</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>110.1212121212121</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1.960331319945251</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="inlineStr"/>
-      <c r="D3" s="0" t="n">
-        <v>19.78787878787879</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>21.90909090909091</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.4484210034053777</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1.524643472312811</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>16.36363636363636</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2.215002230329701</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr"/>
-      <c r="D4" s="0" t="n">
-        <v>11.72727272727273</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>13.45454545454546</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5289664840413514</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1.405879622059373</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>9.78125</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1.773087861077952</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr"/>
-      <c r="D5" s="0" t="n">
-        <v>8.375</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>9.21875</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.5408898290575309</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1.285212831183684</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>7.03125</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1.343259111575458</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>5_8</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0" t="inlineStr"/>
-      <c r="D6" s="0" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>7.535714285714286</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.5367689503211415</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1.363013586341493</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>5.571428571428571</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1.414889963247186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2254,28 +1367,28 @@
       <c r="B4" s="0" t="inlineStr"/>
       <c r="C4" s="0" t="inlineStr"/>
       <c r="D4" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>127.1818181818182</v>
+        <v>316.4242424242424</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>129.3030303030303</v>
+        <v>316.3636363636364</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.6412121212121211</v>
+        <v>0.6327878787878788</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.156578934223389</v>
+        <v>1.290332727193154</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>82.27272727272727</v>
+        <v>192.0606060606061</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1.400492191314697</v>
+        <v>1.965776681900024</v>
       </c>
     </row>
     <row r="5">
@@ -2285,28 +1398,28 @@
       <c r="B5" s="0" t="inlineStr"/>
       <c r="C5" s="0" t="inlineStr"/>
       <c r="D5" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>254.6060606060606</v>
+        <v>569.1212121212121</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>258.3333333333333</v>
+        <v>568.3939393939394</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.6411742424242425</v>
+        <v>0.5790068410501344</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1.248410462312559</v>
+        <v>1.423803741709267</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>157.3333333333333</v>
+        <v>332.7878787878788</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1.882503509521484</v>
+        <v>2.130784749984741</v>
       </c>
     </row>
   </sheetData>
@@ -2314,13 +1427,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2384,62 +1497,396 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="inlineStr"/>
-      <c r="C2" s="0" t="inlineStr"/>
-      <c r="D2" s="0" t="n">
-        <v>50</v>
-      </c>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr"/>
       <c r="E2" s="0" t="n">
-        <v>17.03030303030303</v>
+        <v>46.51515151515152</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>17.03030303030303</v>
+        <v>47.57575757575758</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.3440151515151515</v>
+        <v>0.5509469644190693</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1.540328771618048</v>
+        <v>1.234598268649013</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>18.03030303030303</v>
+        <v>22.24242424242424</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2.46156198870967</v>
+        <v>1.609933580721716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="inlineStr"/>
-      <c r="C3" s="0" t="inlineStr"/>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr"/>
       <c r="E3" s="0" t="n">
-        <v>33.33333333333334</v>
+        <v>46.33333333333334</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>33.42424242424242</v>
+        <v>47.60606060606061</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.3547564798657531</v>
+        <v>0.5493592301893018</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.604072470291601</v>
+        <v>1.23090805495006</v>
       </c>
       <c r="I3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>22.36363636363636</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1.609933580721716</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="n">
+        <v>46.36363636363637</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>47.33333333333334</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5539061358682877</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1.224514836301755</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>22.24242424242424</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.609933580721716</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="n">
+        <v>45.24242424242424</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>46.51515151515152</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.5638996896365625</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1.205054941978043</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>21.96969696969697</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1.641194051171248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="n">
+        <v>97.90909090909091</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.5654050709742309</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.27730677952331</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>41.36363636363637</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.941344890440952</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>96.36363636363636</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.5694164298221411</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1.276441970705102</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>41.72727272727273</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2.00807634751104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="n">
+        <v>96.93939393939394</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>95.15151515151516</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.575400967837031</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.274965994742623</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>41.06060606060606</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>2.008076347511041</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>33.63636363636363</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2.094625313480175</v>
+      <c r="B9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="n">
+        <v>91.27272727272727</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>88.54545454545455</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5845642337134236</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1.251319734414607</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>38.90909090909091</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2.110513720641894</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="n">
+        <v>201.9393939393939</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>195.3636363636364</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5675995570836395</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1.354700804898012</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>76.15151515151516</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1.960019382730494</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="n">
+        <v>201.2121212121212</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>194.6363636363636</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.5710756027162306</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1.35351940112353</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>75.57575757575758</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1.902486231880291</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="n">
+        <v>197.7272727272727</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>191.4242424242424</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5846339113176404</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1.343333390360789</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>74.84848484848484</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1.875553402368005</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="n">
+        <v>164.2121212121212</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>158.8484848484848</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.5680758665300426</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.307024371415655</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>64.39393939393939</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.966459756591057</v>
       </c>
     </row>
   </sheetData>
@@ -2447,13 +1894,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2462,111 +1909,451 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>top_k</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>repeat</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>loc_error</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fail_cnt</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>success_cnt</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg_err</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.48484848484848</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27.18181818181818</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.567326758454578</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9710811562086199</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="n">
+        <v>116.8787878787879</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>115.7575757575758</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.5759223950384804</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1.051623168324271</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1.169993716984992</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="n">
+        <v>117.7878787878788</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>116.7272727272727</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.5823033253052868</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1.055723690757492</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>76.48484848484848</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1.17088295744902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="n">
+        <v>114.4545454545455</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>112.8787878787879</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5749904908034527</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1.057155998715739</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>73.12121212121212</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1.141752110283033</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="n">
+        <v>113.4242424242424</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>111.8484848484848</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.5778153008215557</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1.047100721185086</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>74.66666666666667</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1.125929058593072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="n">
+        <v>62.66666666666666</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>62.15151515151515</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.5668639717401507</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.001871932732971</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>42.51515151515152</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.8106778894654254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
-        <v>13.63636363636364</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9867120981216431</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.60606060606061</v>
-      </c>
-      <c r="E3" t="n">
-        <v>57.96969696969697</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5980629395146014</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9378676513327837</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B7" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="n">
+        <v>62.60606060606061</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>62.06060606060606</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.573139264494414</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.9970703425901406</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>43.27272727272727</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.8929329061942529</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="B8" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="n">
+        <v>61.18181818181818</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>60.78787878787879</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.5659372946335408</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.00445814450781</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>41.54545454545455</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.8762029957836999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="n">
+        <v>59.6969696969697</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>58.84848484848485</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5671997167989575</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.9967738973343975</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>41.81818181818182</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.8520539555414891</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="n">
+        <v>28.93939393939394</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>28.12121212121212</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5632105949606919</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.8874811876680748</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>20.21212121212121</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.6518288468589963</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="n">
+        <v>28.27272727272727</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>27.84848484848485</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.351758599281311</v>
+      <c r="G11" s="0" t="n">
+        <v>0.5678430059774709</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.9073459481592566</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>19.78787878787879</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.8005934192180707</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="n">
+        <v>28.3030303030303</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>27.51515151515152</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5622480801625626</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.9051891108213007</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>19.57575757575757</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.651994027514356</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="n">
+        <v>26.51515151515152</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>26.15151515151515</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.5635004881229241</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.904049887760381</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>18.72727272727273</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.7768855022999075</v>
       </c>
     </row>
   </sheetData>
@@ -2574,13 +2361,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,111 +2376,475 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>top_k</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>N1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>repeat</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>loc_error</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fail_cnt</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>success_cnt</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg_err</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr"/>
-      <c r="B2" s="0" t="inlineStr"/>
-      <c r="C2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>17.03030303030303</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>17.03030303030303</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.3440151515151515</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1.540328771618048</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5_8</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>145.2424242424242</v>
+      </c>
+      <c r="F2" t="n">
+        <v>146.7878787878788</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4478107019310403</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.612992640676715</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>110.1212121212121</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.960331319945251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5_8</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>19.78787878787879</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.90909090909091</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4484210034053777</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.524643472312811</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.36363636363636</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.215002230329701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5_8</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>11.72727272727273</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.45454545454546</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5289664840413514</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.405879622059373</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.78125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.773087861077952</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OAST_9_16</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>668.2121212121212</v>
+      </c>
+      <c r="F5" t="n">
+        <v>667.8484848484849</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.576257103364928</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.672773972972822</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>524.3939393939394</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.072610166205166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>18.03030303030303</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>2.46156198870967</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr"/>
-      <c r="B3" s="0" t="inlineStr"/>
-      <c r="C3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>33.33333333333334</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>33.42424242424242</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.3547564798657531</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1.604072470291601</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OAST_9_16</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>93.39393939393939</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93.63636363636364</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4385594826361108</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.604171606315596</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>87.45454545454545</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.04670372465432</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OAST_9_16</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>29.03030303030303</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28.81818181818182</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4132747505722591</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.560936632775179</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27.6969696969697</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.095973920922392</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7_12_d</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>627.5454545454545</v>
+      </c>
+      <c r="F8" t="n">
+        <v>634</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5711593711329677</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.65597605726306</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>479.7272727272727</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.962350302655508</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>33.63636363636363</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2.094625313480175</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7_12_d</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>70.72727272727273</v>
+      </c>
+      <c r="F9" t="n">
+        <v>71.87878787878788</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4215943015332068</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.588492678800126</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>64.57575757575758</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.656758568446524</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7_12_d</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.417480518004588</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.50606754511208</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.87878787878788</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.754523385431025</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7_12_s</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>630.1212121212121</v>
+      </c>
+      <c r="F11" t="n">
+        <v>633.3333333333334</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.570160714633082</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.64388468263838</v>
+      </c>
+      <c r="I11" t="n">
+        <v>43</v>
+      </c>
+      <c r="J11" t="n">
+        <v>464.6969696969697</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.99826028623402</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7_12_s</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>63.90909090909091</v>
+      </c>
+      <c r="F12" t="n">
+        <v>64.21212121212122</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.415194827918221</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.571477603175219</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>56.18181818181818</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.844853281569083</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7_12_s</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>20.93939393939394</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21.72727272727273</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4247258512274892</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.524514739907225</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18.90909090909091</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.814790869309254</v>
       </c>
     </row>
   </sheetData>
